--- a/resources/admissionCreatePatient.xlsx
+++ b/resources/admissionCreatePatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
   </si>
 </sst>
 </file>
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -480,7 +489,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1">
+    <row r="1" spans="1:8" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +511,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="15">
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -524,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="15">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -545,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -566,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="15">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -587,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="15">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -609,8 +621,11 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15">
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -632,8 +647,11 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15">
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -656,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="15">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -677,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -698,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -721,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>

--- a/resources/admissionCreatePatient.xlsx
+++ b/resources/admissionCreatePatient.xlsx
@@ -60,18 +60,12 @@
     <t>New Admission Modal</t>
   </si>
   <si>
-    <t>//*[@id="dialogContent_13"]</t>
-  </si>
-  <si>
     <t>visible</t>
   </si>
   <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>//*[@id="input_15"]</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -81,36 +75,21 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>//*[@id="input_16"]</t>
-  </si>
-  <si>
     <t>Middle Name</t>
   </si>
   <si>
-    <t>//*[@id="input_17"]</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>Gender Select</t>
   </si>
   <si>
-    <t>//*[@id="select_20"]</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>//*[@id="select_option_18"]</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>//*[@id="dialogContent_13"]/div[2]/div[1]/div[1]/form/div/md-datepicker/div[1]/input</t>
-  </si>
-  <si>
     <t>03-10-2017</t>
   </si>
   <si>
@@ -133,6 +112,27 @@
   </si>
   <si>
     <t>lastname</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.newpatient.firstName"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.newpatient.lastName"]</t>
+  </si>
+  <si>
+    <t>//md-dialog[@class="mobile-fullwidth-dialog _md md-cs-content-theme-theme flex-xs-100 flex-40 _md-transition-in"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.newpatient.middleName"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.newpatient.gender"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.newpatient.birthday"]/div[1]/input</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="15">
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -578,15 +578,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -601,17 +601,17 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
@@ -622,21 +622,21 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -648,21 +648,21 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -695,12 +695,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -718,16 +718,16 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -741,10 +741,10 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>

--- a/resources/admissionCreatePatient.xlsx
+++ b/resources/admissionCreatePatient.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>30</v>
@@ -642,10 +642,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>31</v>
@@ -668,10 +668,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="15">
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="30">

--- a/resources/admissionCreatePatient.xlsx
+++ b/resources/admissionCreatePatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Confirm Button</t>
   </si>
   <si>
-    <t>//*[@id="dialogContent_13"]/div[2]/div[1]/div[2]/button[3]</t>
-  </si>
-  <si>
     <t>test7</t>
   </si>
   <si>
@@ -133,6 +130,15 @@
   </si>
   <si>
     <t>//md-datepicker[@ng-model="vm.newpatient.birthday"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//button[@class="md-primary md-button ng-scope md-cs-content-theme-theme md-ink-ripple"]</t>
+  </si>
+  <si>
+    <t>Updating</t>
+  </si>
+  <si>
+    <t>//md-toast/div/span</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -512,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="15">
@@ -520,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -583,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -604,7 +610,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -622,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="15">
@@ -630,13 +636,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -648,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="15">
@@ -656,7 +662,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -679,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -700,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -721,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -739,12 +745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -758,6 +764,17 @@
       </c>
       <c r="G12" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionCreatePatient.xlsx
+++ b/resources/admissionCreatePatient.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -495,7 +495,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1">
+    <row r="1" spans="1:8" ht="56.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>

--- a/resources/admissionCreatePatient.xlsx
+++ b/resources/admissionCreatePatient.xlsx
@@ -48,97 +48,97 @@
     <t>Admission</t>
   </si>
   <si>
+    <t>New Patient</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[2]</t>
+  </si>
+  <si>
+    <t>New Admission Modal</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Gender Select</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>03-10-2017</t>
+  </si>
+  <si>
+    <t>Confirm Button</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.newpatient.firstName"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.newpatient.lastName"]</t>
+  </si>
+  <si>
+    <t>//md-dialog[@class="mobile-fullwidth-dialog _md md-cs-content-theme-theme flex-xs-100 flex-40 _md-transition-in"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.newpatient.middleName"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.newpatient.gender"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.newpatient.birthday"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//button[@class="md-primary md-button ng-scope md-cs-content-theme-theme md-ink-ripple"]</t>
+  </si>
+  <si>
+    <t>Updating</t>
+  </si>
+  <si>
+    <t>//md-toast/div/span</t>
+  </si>
+  <si>
     <t>/html/body/div/div/md-content/div/section/div[1]/button</t>
   </si>
   <si>
-    <t>New Patient</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[2]</t>
-  </si>
-  <si>
-    <t>New Admission Modal</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Gender Select</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>03-10-2017</t>
-  </si>
-  <si>
-    <t>Confirm Button</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.newpatient.firstName"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.newpatient.lastName"]</t>
-  </si>
-  <si>
-    <t>//md-dialog[@class="mobile-fullwidth-dialog _md md-cs-content-theme-theme flex-xs-100 flex-40 _md-transition-in"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.newpatient.middleName"]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-model="vm.newpatient.gender"]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
-  </si>
-  <si>
-    <t>//md-datepicker[@ng-model="vm.newpatient.birthday"]/div[1]/input</t>
-  </si>
-  <si>
-    <t>//button[@class="md-primary md-button ng-scope md-cs-content-theme-theme md-ink-ripple"]</t>
-  </si>
-  <si>
-    <t>Updating</t>
-  </si>
-  <si>
-    <t>//md-toast/div/span</t>
+    <t>/html/body/div/div/md-content/div/section/div[10]/button</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -518,15 +518,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -565,10 +565,10 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -607,16 +607,16 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -628,21 +628,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -654,21 +654,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -703,10 +703,10 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -724,16 +724,16 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionCreatePatient.xlsx
+++ b/resources/admissionCreatePatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>New Patient</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[2]</t>
-  </si>
-  <si>
     <t>New Admission Modal</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>//input[@ng-model="vm.newpatient.lastName"]</t>
   </si>
   <si>
-    <t>//md-dialog[@class="mobile-fullwidth-dialog _md md-cs-content-theme-theme flex-xs-100 flex-40 _md-transition-in"]</t>
-  </si>
-  <si>
     <t>//input[@ng-model="vm.newpatient.middleName"]</t>
   </si>
   <si>
@@ -135,10 +129,34 @@
     <t>//md-toast/div/span</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[1]/button</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/section/div[10]/button</t>
+    <t>/html/body/div[1]/div/md-content/div/section/div[10]/button</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/div/section/div[1]/button</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/md-content/md-content[3]/md-content/div/div/div/div[1]/button[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="dialogContent_15"]</t>
+  </si>
+  <si>
+    <t>Medicaid Number</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.newpatient.mrnNumber"]</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>HIC number</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.newpatient.hicNumber"]</t>
+  </si>
+  <si>
+    <t>412333</t>
   </si>
 </sst>
 </file>
@@ -479,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -518,15 +536,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -547,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -563,12 +581,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -584,15 +602,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="45">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1">
@@ -607,16 +625,16 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -628,21 +646,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -654,21 +672,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -682,10 +700,10 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -703,10 +721,10 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -724,16 +742,16 @@
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -745,36 +763,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="15">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionCreatePatient.xlsx
+++ b/resources/admissionCreatePatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -114,9 +114,6 @@
     <t>//md-select[@ng-model="vm.newpatient.gender"]</t>
   </si>
   <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
-  </si>
-  <si>
     <t>//md-datepicker[@ng-model="vm.newpatient.birthday"]/div[1]/input</t>
   </si>
   <si>
@@ -135,28 +132,76 @@
     <t>/html/body/div[1]/div/md-content/div/section/div[1]/button</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/md-content/md-content/md-content[3]/md-content/div/div/div/div[1]/button[2]</t>
-  </si>
-  <si>
-    <t>//*[@id="dialogContent_15"]</t>
-  </si>
-  <si>
-    <t>Medicaid Number</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.newpatient.mrnNumber"]</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>HIC number</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.newpatient.hicNumber"]</t>
-  </si>
-  <si>
-    <t>412333</t>
+    <t>Add Button</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.addOnePatientNumber()"]</t>
+  </si>
+  <si>
+    <t>HIC DropDown</t>
+  </si>
+  <si>
+    <t>//md-dialog[@class="mobile-fullwidth-dialog _md md-cs-content-theme-theme flex-md-80 flex-gt-md-60 flex-100 _md-transition-in"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
+  </si>
+  <si>
+    <t>//md-input-container[@class="md-block md-cs-content-theme-theme flex md-input-has-value"]</t>
+  </si>
+  <si>
+    <t>Med Num</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="patientNumber.number"]</t>
+  </si>
+  <si>
+    <t>Add Button2</t>
+  </si>
+  <si>
+    <t>Number2</t>
+  </si>
+  <si>
+    <t>(//input[@ng-model="patientNumber.number"])[2]</t>
+  </si>
+  <si>
+    <t>Add Button3</t>
+  </si>
+  <si>
+    <t>Number3</t>
+  </si>
+  <si>
+    <t>(//input[@ng-model="patientNumber.number"])[3]</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>Searchbtn</t>
+  </si>
+  <si>
+    <t>Searchtxtbox</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.patientSearch"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.filterShow = false"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-show="vm.admissionKeys.length &lt;= 1000 &amp;&amp; vm.admissionStatus =='All'"]</t>
   </si>
 </sst>
 </file>
@@ -497,19 +542,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="37.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" style="3" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="20.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -539,12 +584,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -560,12 +605,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -586,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -602,12 +647,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -719,12 +764,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="45">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -745,7 +790,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -765,38 +810,52 @@
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="15">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -812,15 +871,194 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="15">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="15">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="15">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="15">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="30">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionCreatePatient.xlsx
+++ b/resources/admissionCreatePatient.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
